--- a/P80_III.xlsx
+++ b/P80_III.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10E53B-8F33-487F-AF82-91ECF26F0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CB6505-B50C-4AB3-ABA3-8873EC83A702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2880" yWindow="450" windowWidth="27810" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KV 100 - GF30-10.5" sheetId="1" r:id="rId1"/>
     <sheet name="KV 100 - MF3016" sheetId="2" r:id="rId2"/>
+    <sheet name="KV 100 - G3211" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="16">
   <si>
     <t>Type</t>
   </si>
@@ -72,6 +73,9 @@
   <si>
     <t>MF3016</t>
   </si>
+  <si>
+    <t>G3211</t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +85,7 @@
     <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +104,17 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,12 +176,283 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="###0;###0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="###0;###0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="###0;###0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -606,42 +892,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L22" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Propeller" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="throttle" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Voltage [v]" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Thrust [gram]" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Torque [N*m]" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Current [A]" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RPM" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Power [W]" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Thrust/Power" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="price of motor" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="price of prop" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Propeller" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="throttle" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Voltage [v]" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Thrust [gram]" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Torque [N*m]" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Current [A]" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RPM" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Power [W]" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Thrust/Power" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="price of motor" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="price of prop" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="A1:L22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="A1:L22" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propeller" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="throttle" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Voltage [v]" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Thrust [gram]" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Torque [N*m]" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Current [A]" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="RPM" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Power [W]" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Thrust/Power" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="price of motor" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="price of prop" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propeller" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="throttle" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Voltage [v]" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Thrust [gram]" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Torque [N*m]" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Current [A]" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="RPM" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Power [W]" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Thrust/Power" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="price of motor" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="price of prop" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C2528B7-4885-4201-B8C9-3DABCE800FEF}" name="Table143" displayName="Table143" ref="A1:L22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="2">
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{EC30D772-97A8-4E5B-BBE5-E98987504331}" name="Type" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C96ADCB1-A87E-4704-9C59-55E489CA0230}" name="Propeller" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{6313B4ED-E05E-4C74-A991-C805544FDC62}" name="throttle" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3501B424-6343-498B-A241-60E753042078}" name="Voltage [v]" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{C6C827A1-148F-45DC-B345-8D6F443B6FD4}" name="Thrust [gram]" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{0B70729B-141D-4F80-8E6A-453A1E8CF67B}" name="Torque [N*m]" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F49953EF-10C5-40B7-8D26-95D5509F8FDC}" name="Current [A]" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{87499E6B-EC4C-4A64-90C5-C3BCC72CE03F}" name="RPM" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{D213B0ED-44B7-4C43-9C83-0098D6CD2AA3}" name="Power [W]" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{C52959E8-6108-4F28-81F4-37C10DE66548}" name="Thrust/Power" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{9B1ED5F1-6D56-4138-BC79-2999BAA9712A}" name="price of motor" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{3DDCB271-5D13-4F6C-BDB9-7CEA08D1E1E8}" name="price of prop" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1852,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2723,4 +3030,881 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E19B53-48E3-4F40-B92E-2332A69CD396}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="14">
+        <v>47.89</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3569</v>
+      </c>
+      <c r="F2" s="16">
+        <f>1.3</f>
+        <v>1.3</v>
+      </c>
+      <c r="G2" s="14">
+        <v>6.23</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1682</v>
+      </c>
+      <c r="I2" s="15">
+        <v>298</v>
+      </c>
+      <c r="J2" s="16">
+        <f>11.97</f>
+        <v>11.97</v>
+      </c>
+      <c r="K2" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L2" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="D3" s="14">
+        <v>47.88</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3833</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="G3" s="14">
+        <v>6.84</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1744</v>
+      </c>
+      <c r="I3" s="15">
+        <v>327</v>
+      </c>
+      <c r="J3" s="14">
+        <v>11.72</v>
+      </c>
+      <c r="K3" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L3" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="D4" s="14">
+        <v>47.86</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4074</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1.48</v>
+      </c>
+      <c r="G4" s="14">
+        <v>7.57</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1804</v>
+      </c>
+      <c r="I4" s="15">
+        <v>362</v>
+      </c>
+      <c r="J4" s="14">
+        <v>11.25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L4" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="D5" s="14">
+        <v>47.86</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4329</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1.57</v>
+      </c>
+      <c r="G5" s="14">
+        <v>8.08</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1848</v>
+      </c>
+      <c r="I5" s="15">
+        <v>387</v>
+      </c>
+      <c r="J5" s="16">
+        <f>11.19</f>
+        <v>11.19</v>
+      </c>
+      <c r="K5" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L5" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="D6" s="14">
+        <v>47.83</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4655</v>
+      </c>
+      <c r="F6" s="16">
+        <f>1.69</f>
+        <v>1.69</v>
+      </c>
+      <c r="G6" s="14">
+        <v>9</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1915</v>
+      </c>
+      <c r="I6" s="15">
+        <v>431</v>
+      </c>
+      <c r="J6" s="14">
+        <v>10.81</v>
+      </c>
+      <c r="K6" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L6" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="14">
+        <v>47.82</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4992</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="G7" s="14">
+        <v>9.89</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1982</v>
+      </c>
+      <c r="I7" s="15">
+        <v>473</v>
+      </c>
+      <c r="J7" s="14">
+        <v>10.56</v>
+      </c>
+      <c r="K7" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L7" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="D8" s="14">
+        <v>47.81</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5325</v>
+      </c>
+      <c r="F8" s="16">
+        <f>1.92</f>
+        <v>1.92</v>
+      </c>
+      <c r="G8" s="14">
+        <v>10.76</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2054</v>
+      </c>
+      <c r="I8" s="15">
+        <v>514</v>
+      </c>
+      <c r="J8" s="14">
+        <v>10.36</v>
+      </c>
+      <c r="K8" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L8" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="D9" s="14">
+        <v>47.77</v>
+      </c>
+      <c r="E9" s="15">
+        <v>5655</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G9" s="14">
+        <v>11.96</v>
+      </c>
+      <c r="H9" s="15">
+        <v>2121</v>
+      </c>
+      <c r="I9" s="15">
+        <v>571</v>
+      </c>
+      <c r="J9" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L9" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D10" s="14">
+        <v>47.76</v>
+      </c>
+      <c r="E10" s="15">
+        <v>6143</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G10" s="14">
+        <v>13.22</v>
+      </c>
+      <c r="H10" s="15">
+        <v>2206</v>
+      </c>
+      <c r="I10" s="15">
+        <v>631</v>
+      </c>
+      <c r="J10" s="14">
+        <v>9.73</v>
+      </c>
+      <c r="K10" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L10" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D11" s="14">
+        <v>47.73</v>
+      </c>
+      <c r="E11" s="15">
+        <v>6604</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="G11" s="14">
+        <v>14.61</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2289</v>
+      </c>
+      <c r="I11" s="15">
+        <v>697</v>
+      </c>
+      <c r="J11" s="14">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="K11" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L11" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="14">
+        <v>47.69</v>
+      </c>
+      <c r="E12" s="16">
+        <f>7188</f>
+        <v>7188</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2.59</v>
+      </c>
+      <c r="G12" s="14">
+        <v>16.52</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2374</v>
+      </c>
+      <c r="I12" s="15">
+        <v>788</v>
+      </c>
+      <c r="J12" s="14">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="K12" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L12" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="D13" s="14">
+        <v>47.67</v>
+      </c>
+      <c r="E13" s="15">
+        <v>7609</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="G13" s="14">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="H13" s="15">
+        <v>2438</v>
+      </c>
+      <c r="I13" s="15">
+        <v>850</v>
+      </c>
+      <c r="J13" s="14">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="K13" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L13" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="D14" s="14">
+        <v>47.64</v>
+      </c>
+      <c r="E14" s="15">
+        <v>7997</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="G14" s="14">
+        <v>19.37</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2506</v>
+      </c>
+      <c r="I14" s="15">
+        <v>923</v>
+      </c>
+      <c r="J14" s="14">
+        <v>8.67</v>
+      </c>
+      <c r="K14" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L14" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="D15" s="14">
+        <v>47.62</v>
+      </c>
+      <c r="E15" s="15">
+        <v>8413</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="G15" s="14">
+        <v>20.83</v>
+      </c>
+      <c r="H15" s="15">
+        <v>2577</v>
+      </c>
+      <c r="I15" s="15">
+        <v>992</v>
+      </c>
+      <c r="J15" s="14">
+        <v>8.48</v>
+      </c>
+      <c r="K15" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L15" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="D16" s="14">
+        <v>47.59</v>
+      </c>
+      <c r="E16" s="15">
+        <v>8783</v>
+      </c>
+      <c r="F16" s="14">
+        <v>3.18</v>
+      </c>
+      <c r="G16" s="14">
+        <v>22.42</v>
+      </c>
+      <c r="H16" s="15">
+        <v>2646</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1067</v>
+      </c>
+      <c r="J16" s="14">
+        <v>8.23</v>
+      </c>
+      <c r="K16" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L16" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="14">
+        <v>47.55</v>
+      </c>
+      <c r="E17" s="15">
+        <v>9372</v>
+      </c>
+      <c r="F17" s="14">
+        <v>3.38</v>
+      </c>
+      <c r="G17" s="14">
+        <v>24.31</v>
+      </c>
+      <c r="H17" s="15">
+        <v>2707</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1156</v>
+      </c>
+      <c r="J17" s="14">
+        <v>8.11</v>
+      </c>
+      <c r="K17" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L17" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="D18" s="14">
+        <v>47.45</v>
+      </c>
+      <c r="E18" s="15">
+        <v>10840</v>
+      </c>
+      <c r="F18" s="14">
+        <v>3.92</v>
+      </c>
+      <c r="G18" s="14">
+        <v>30.37</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2905</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1441</v>
+      </c>
+      <c r="J18" s="14">
+        <v>7.52</v>
+      </c>
+      <c r="K18" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L18" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="D19" s="14">
+        <v>47.34</v>
+      </c>
+      <c r="E19" s="15">
+        <v>12181</v>
+      </c>
+      <c r="F19" s="14">
+        <v>4.43</v>
+      </c>
+      <c r="G19" s="14">
+        <v>36.47</v>
+      </c>
+      <c r="H19" s="15">
+        <v>3078</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1726</v>
+      </c>
+      <c r="J19" s="14">
+        <v>7.06</v>
+      </c>
+      <c r="K19" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L19" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="D20" s="14">
+        <v>47.23</v>
+      </c>
+      <c r="E20" s="15">
+        <v>13512</v>
+      </c>
+      <c r="F20" s="14">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G20" s="16">
+        <f>43.11</f>
+        <v>43.11</v>
+      </c>
+      <c r="H20" s="15">
+        <v>3237</v>
+      </c>
+      <c r="I20" s="15">
+        <v>2036</v>
+      </c>
+      <c r="J20" s="14">
+        <v>6.64</v>
+      </c>
+      <c r="K20" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L20" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D21" s="14">
+        <v>47.1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>14961</v>
+      </c>
+      <c r="F21" s="14">
+        <v>5.48</v>
+      </c>
+      <c r="G21" s="14">
+        <v>50.65</v>
+      </c>
+      <c r="H21" s="15">
+        <v>3393</v>
+      </c>
+      <c r="I21" s="15">
+        <v>2385</v>
+      </c>
+      <c r="J21" s="14">
+        <v>6.27</v>
+      </c>
+      <c r="K21" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L21" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>46.96</v>
+      </c>
+      <c r="E22" s="15">
+        <v>16344</v>
+      </c>
+      <c r="F22" s="14">
+        <v>5.98</v>
+      </c>
+      <c r="G22" s="14">
+        <v>58.51</v>
+      </c>
+      <c r="H22" s="15">
+        <v>3545</v>
+      </c>
+      <c r="I22" s="15">
+        <v>2748</v>
+      </c>
+      <c r="J22" s="14">
+        <v>5.95</v>
+      </c>
+      <c r="K22" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L22" s="17">
+        <v>357.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/P80_III.xlsx
+++ b/P80_III.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CB6505-B50C-4AB3-ABA3-8873EC83A702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ED7F6F-7398-4BA2-A6CB-508DF0F4A0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KV 100 - GF30-10.5" sheetId="1" r:id="rId1"/>
     <sheet name="KV 100 - MF3016" sheetId="2" r:id="rId2"/>
     <sheet name="KV 100 - G3211" sheetId="3" r:id="rId3"/>
+    <sheet name="KV 100 - MF3218" sheetId="5" r:id="rId4"/>
+    <sheet name="KV 120 - G3010.5" sheetId="6" r:id="rId5"/>
+    <sheet name="KV 120 - MF3016" sheetId="7" r:id="rId6"/>
+    <sheet name="KV 120 - G299.5" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="20">
   <si>
     <t>Type</t>
   </si>
@@ -76,6 +80,18 @@
   <si>
     <t>G3211</t>
   </si>
+  <si>
+    <t>KV120</t>
+  </si>
+  <si>
+    <t>MF3218</t>
+  </si>
+  <si>
+    <t>G3010.5</t>
+  </si>
+  <si>
+    <t>G299.5</t>
+  </si>
 </sst>
 </file>
 
@@ -85,7 +101,7 @@
     <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +132,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,12 +161,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,14 +237,249 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
+  <dxfs count="98">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -228,6 +506,55 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -238,12 +565,799 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDEE2E6"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFDEE2E6"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -444,6 +1558,21 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
@@ -892,63 +2021,147 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L22" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Propeller" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="throttle" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Voltage [v]" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Thrust [gram]" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Torque [N*m]" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Current [A]" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RPM" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Power [W]" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Thrust/Power" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="price of motor" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="price of prop" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Propeller" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="throttle" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Voltage [v]" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Thrust [gram]" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Torque [N*m]" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Current [A]" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RPM" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Power [W]" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Thrust/Power" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="price of motor" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="price of prop" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="A1:L22" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="A1:L22" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propeller" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="throttle" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Voltage [v]" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Thrust [gram]" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Torque [N*m]" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Current [A]" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="RPM" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Power [W]" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Thrust/Power" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="price of motor" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="price of prop" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propeller" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="throttle" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Voltage [v]" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Thrust [gram]" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Torque [N*m]" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Current [A]" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="RPM" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Power [W]" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Thrust/Power" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="price of motor" dataDxfId="71"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="price of prop" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C2528B7-4885-4201-B8C9-3DABCE800FEF}" name="Table143" displayName="Table143" ref="A1:L22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C2528B7-4885-4201-B8C9-3DABCE800FEF}" name="Table143" displayName="Table143" ref="A1:L22" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EC30D772-97A8-4E5B-BBE5-E98987504331}" name="Type" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C96ADCB1-A87E-4704-9C59-55E489CA0230}" name="Propeller" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{6313B4ED-E05E-4C74-A991-C805544FDC62}" name="throttle" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3501B424-6343-498B-A241-60E753042078}" name="Voltage [v]" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{C6C827A1-148F-45DC-B345-8D6F443B6FD4}" name="Thrust [gram]" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{0B70729B-141D-4F80-8E6A-453A1E8CF67B}" name="Torque [N*m]" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{F49953EF-10C5-40B7-8D26-95D5509F8FDC}" name="Current [A]" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{87499E6B-EC4C-4A64-90C5-C3BCC72CE03F}" name="RPM" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{D213B0ED-44B7-4C43-9C83-0098D6CD2AA3}" name="Power [W]" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C52959E8-6108-4F28-81F4-37C10DE66548}" name="Thrust/Power" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{9B1ED5F1-6D56-4138-BC79-2999BAA9712A}" name="price of motor" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{3DDCB271-5D13-4F6C-BDB9-7CEA08D1E1E8}" name="price of prop" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EC30D772-97A8-4E5B-BBE5-E98987504331}" name="Type" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{C96ADCB1-A87E-4704-9C59-55E489CA0230}" name="Propeller" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{6313B4ED-E05E-4C74-A991-C805544FDC62}" name="throttle" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{3501B424-6343-498B-A241-60E753042078}" name="Voltage [v]" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{C6C827A1-148F-45DC-B345-8D6F443B6FD4}" name="Thrust [gram]" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{0B70729B-141D-4F80-8E6A-453A1E8CF67B}" name="Torque [N*m]" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{F49953EF-10C5-40B7-8D26-95D5509F8FDC}" name="Current [A]" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{87499E6B-EC4C-4A64-90C5-C3BCC72CE03F}" name="RPM" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{D213B0ED-44B7-4C43-9C83-0098D6CD2AA3}" name="Power [W]" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{C52959E8-6108-4F28-81F4-37C10DE66548}" name="Thrust/Power" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{9B1ED5F1-6D56-4138-BC79-2999BAA9712A}" name="price of motor" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{3DDCB271-5D13-4F6C-BDB9-7CEA08D1E1E8}" name="price of prop" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1F4C0C61-8064-48E9-A4AA-4F7DCEB228DB}" name="Table1435" displayName="Table1435" ref="A1:L22" totalsRowShown="0" headerRowDxfId="55" dataDxfId="42">
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{A412AA80-7755-4949-8273-C0F3FE6BDFA1}" name="Type" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{33370E58-FA21-472F-A183-30D82543FCD8}" name="Propeller" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{E0467680-646D-4291-AE1E-B88929E7AB63}" name="throttle" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{A45BD22E-C0E1-4101-A8E6-26EA32BD16BA}" name="Voltage [v]" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{382705E3-84EF-42B9-B183-02BC8ED18D4B}" name="Thrust [gram]" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{AF407D2E-FB53-4413-9223-3AA16F919D1E}" name="Torque [N*m]" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{3AF9044B-CCE4-4D25-BF73-A9D8CCB7EAD9}" name="Current [A]" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{BF5A5205-5F8A-4A29-9AA4-D8D42A277C9D}" name="RPM" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{16AA67C1-A72F-457E-BB7D-6F17C671AE70}" name="Power [W]" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{51F09B7A-556B-4EAB-9610-D4B013D5493A}" name="Thrust/Power" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{29536400-39F9-4827-BE12-30D2772782AE}" name="price of motor" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{88B48DDF-2032-4DD2-971A-B318840CD521}" name="price of prop" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A047AA2B-5101-4A12-9AF9-8980B1941781}" name="Table14356" displayName="Table14356" ref="A1:L22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="28">
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{CB924DC6-30EF-44CF-B87D-960FEAB3EB87}" name="Type" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{1D96BE9A-35B2-4B6B-9945-89D3FD23FCAD}" name="Propeller" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{E0938871-0D00-4530-B93C-A07205E3A48E}" name="throttle" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{746488A5-F4DF-4AFF-AC48-5C90880A43A4}" name="Voltage [v]" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{4B8B9B5F-6991-4C4D-A677-59FFDB4BAC39}" name="Thrust [gram]" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{D0131166-B987-493D-A695-F12EB3FEBE98}" name="Torque [N*m]" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{8F492231-EC06-49D3-8034-6EF84E8701CE}" name="Current [A]" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{BAC02839-E3D5-4D6B-8062-54FB08EBC17B}" name="RPM" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{6148CE73-F641-4DF7-8171-A595D5FB84EA}" name="Power [W]" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{005C529B-4839-4D04-B6F8-5C416CDEFF7F}" name="Thrust/Power" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{E6A6410C-DABC-4045-8A87-0C60CDFF6D45}" name="price of motor" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{B34BBBF6-C994-4968-B888-EF10035EE707}" name="price of prop" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EFC49B59-21E0-4A12-BC95-9C3564F5A49F}" name="Table143567" displayName="Table143567" ref="A1:L22" totalsRowShown="0" headerRowDxfId="27" dataDxfId="14">
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{086601D7-A6D6-40AE-9539-67081A1988FA}" name="Type" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1D30D02A-E42E-4CB1-914F-2A7AA86A1415}" name="Propeller" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{9CAD1E72-8E6B-41F0-B7DE-29A7C9A88198}" name="throttle" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{A6138A34-7BE9-436A-A593-B0DBD0B6F7E1}" name="Voltage [v]" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{7359C284-1E67-431D-9907-E94BCF2978E8}" name="Thrust [gram]" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{2CE5C8E1-8BD4-4D9F-A1AB-EECEB85194D1}" name="Torque [N*m]" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{D92FEDA2-6AB8-40A5-A086-7C2B9F472F25}" name="Current [A]" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{5E6273BC-05DD-49C2-99C0-C868C3D7EE11}" name="RPM" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{9AAB7D11-1A43-4A92-9CC9-7912FE47CE8C}" name="Power [W]" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{D8A75D37-846E-4D51-B110-4CFE66D0C4BC}" name="Thrust/Power" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{D905113E-5DCA-4BC3-8078-2367EBFB114A}" name="price of motor" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{D4E0B958-6988-40F7-94AC-E93CD5D9333C}" name="price of prop" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D05AB934-43D4-40C0-9685-51D1FAF3D9C4}" name="Table1435678" displayName="Table1435678" ref="A1:L22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{2F024797-5978-4966-9361-9C7F5AFF06C1}" name="Type" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{62A6D026-0D36-483A-AC93-49BAF3F5389C}" name="Propeller" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{B77F5565-6F61-4F97-908C-30F6BB249940}" name="throttle" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{17658B7D-3079-4F07-87B6-686DDE949576}" name="Voltage [v]" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{47ED43BA-B4D9-437F-B283-266939532A65}" name="Thrust [gram]" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5FD7A27F-5E92-4353-A93B-80F8251B2401}" name="Torque [N*m]" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{D64A72DA-65C9-4043-BAEC-319A3D4A4361}" name="Current [A]" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{ACFA6466-AC2C-463A-9F1A-8B79B45CF2EF}" name="RPM" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{82A1DADE-4BBB-4801-86E1-7858F293A1AE}" name="Power [W]" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{D4A5F4F0-E970-404A-80DB-0981847CBE4A}" name="Thrust/Power" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{E0B65DA9-6300-4FF3-A05A-400BD597C7EC}" name="price of motor" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{6FF38A66-71EE-460B-9E1F-F4D91B12D472}" name="price of prop" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,7 +2491,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,7 +4249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E19B53-48E3-4F40-B92E-2332A69CD396}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
@@ -3907,4 +5120,3484 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF63F95-52D2-4AF5-A1F0-23E571F80685}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="20">
+        <v>47.87</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3505</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="G2" s="20">
+        <v>6.23</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1684</v>
+      </c>
+      <c r="I2" s="20">
+        <v>298</v>
+      </c>
+      <c r="J2" s="20">
+        <v>11.75</v>
+      </c>
+      <c r="K2" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L2" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="D3" s="20">
+        <v>47.87</v>
+      </c>
+      <c r="E3" s="20">
+        <v>3744</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1.39</v>
+      </c>
+      <c r="G3" s="20">
+        <v>6.71</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1739</v>
+      </c>
+      <c r="I3" s="20">
+        <v>321</v>
+      </c>
+      <c r="J3" s="20">
+        <v>11.66</v>
+      </c>
+      <c r="K3" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L3" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.44</v>
+      </c>
+      <c r="D4" s="20">
+        <v>47.85</v>
+      </c>
+      <c r="E4" s="20">
+        <v>3992</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1.47</v>
+      </c>
+      <c r="G4" s="20">
+        <v>7.43</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1798</v>
+      </c>
+      <c r="I4" s="20">
+        <v>356</v>
+      </c>
+      <c r="J4" s="20">
+        <v>11.23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L4" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.46</v>
+      </c>
+      <c r="D5" s="20">
+        <v>47.83</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4267</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1.58</v>
+      </c>
+      <c r="G5" s="20">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1856</v>
+      </c>
+      <c r="I5" s="20">
+        <v>392</v>
+      </c>
+      <c r="J5" s="20">
+        <v>10.88</v>
+      </c>
+      <c r="K5" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L5" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="D6" s="20">
+        <v>47.82</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4565</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1.68</v>
+      </c>
+      <c r="G6" s="20">
+        <v>8.98</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1920</v>
+      </c>
+      <c r="I6" s="20">
+        <v>429</v>
+      </c>
+      <c r="J6" s="20">
+        <v>10.63</v>
+      </c>
+      <c r="K6" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L6" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="20">
+        <v>47.8</v>
+      </c>
+      <c r="E7" s="20">
+        <v>4885</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1.79</v>
+      </c>
+      <c r="G7" s="20">
+        <v>9.75</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1981</v>
+      </c>
+      <c r="I7" s="20">
+        <v>466</v>
+      </c>
+      <c r="J7" s="20">
+        <v>10.48</v>
+      </c>
+      <c r="K7" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L7" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="D8" s="20">
+        <v>47.77</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5248</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1.93</v>
+      </c>
+      <c r="G8" s="20">
+        <v>11</v>
+      </c>
+      <c r="H8" s="20">
+        <v>2056</v>
+      </c>
+      <c r="I8" s="20">
+        <v>525</v>
+      </c>
+      <c r="J8" s="20">
+        <v>9.99</v>
+      </c>
+      <c r="K8" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L8" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="D9" s="20">
+        <v>47.76</v>
+      </c>
+      <c r="E9" s="20">
+        <v>5592</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2.06</v>
+      </c>
+      <c r="G9" s="20">
+        <v>11.93</v>
+      </c>
+      <c r="H9" s="20">
+        <v>2125</v>
+      </c>
+      <c r="I9" s="20">
+        <v>570</v>
+      </c>
+      <c r="J9" s="20">
+        <v>9.82</v>
+      </c>
+      <c r="K9" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L9" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D10" s="20">
+        <v>47.74</v>
+      </c>
+      <c r="E10" s="20">
+        <v>6039</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2.23</v>
+      </c>
+      <c r="G10" s="20">
+        <v>13.24</v>
+      </c>
+      <c r="H10" s="20">
+        <v>2214</v>
+      </c>
+      <c r="I10" s="20">
+        <v>632</v>
+      </c>
+      <c r="J10" s="20">
+        <v>9.56</v>
+      </c>
+      <c r="K10" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L10" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D11" s="20">
+        <v>47.72</v>
+      </c>
+      <c r="E11" s="20">
+        <v>6510</v>
+      </c>
+      <c r="F11" s="20">
+        <v>2.39</v>
+      </c>
+      <c r="G11" s="20">
+        <v>14.65</v>
+      </c>
+      <c r="H11" s="20">
+        <v>2295</v>
+      </c>
+      <c r="I11" s="20">
+        <v>699</v>
+      </c>
+      <c r="J11" s="20">
+        <v>9.31</v>
+      </c>
+      <c r="K11" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L11" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="20">
+        <v>47.68</v>
+      </c>
+      <c r="E12" s="20">
+        <v>7018</v>
+      </c>
+      <c r="F12" s="20">
+        <v>2.57</v>
+      </c>
+      <c r="G12" s="20">
+        <v>16.3</v>
+      </c>
+      <c r="H12" s="20">
+        <v>2376</v>
+      </c>
+      <c r="I12" s="20">
+        <v>777</v>
+      </c>
+      <c r="J12" s="20">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="K12" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L12" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="D13" s="20">
+        <v>47.65</v>
+      </c>
+      <c r="E13" s="20">
+        <v>7408</v>
+      </c>
+      <c r="F13" s="20">
+        <v>2.71</v>
+      </c>
+      <c r="G13" s="20">
+        <v>17.7</v>
+      </c>
+      <c r="H13" s="20">
+        <v>2446</v>
+      </c>
+      <c r="I13" s="20">
+        <v>843</v>
+      </c>
+      <c r="J13" s="20">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="K13" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L13" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="D14" s="20">
+        <v>47.63</v>
+      </c>
+      <c r="E14" s="20">
+        <v>7803</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2.87</v>
+      </c>
+      <c r="G14" s="20">
+        <v>19.12</v>
+      </c>
+      <c r="H14" s="20">
+        <v>2512</v>
+      </c>
+      <c r="I14" s="20">
+        <v>911</v>
+      </c>
+      <c r="J14" s="20">
+        <v>8.57</v>
+      </c>
+      <c r="K14" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L14" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.66</v>
+      </c>
+      <c r="D15" s="20">
+        <v>47.61</v>
+      </c>
+      <c r="E15" s="20">
+        <v>8227</v>
+      </c>
+      <c r="F15" s="20">
+        <v>3.02</v>
+      </c>
+      <c r="G15" s="20">
+        <v>20.56</v>
+      </c>
+      <c r="H15" s="20">
+        <v>2583</v>
+      </c>
+      <c r="I15" s="20">
+        <v>979</v>
+      </c>
+      <c r="J15" s="20">
+        <v>8.41</v>
+      </c>
+      <c r="K15" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L15" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="D16" s="20">
+        <v>47.57</v>
+      </c>
+      <c r="E16" s="20">
+        <v>8732</v>
+      </c>
+      <c r="F16" s="20">
+        <v>3.2</v>
+      </c>
+      <c r="G16" s="20">
+        <v>22.39</v>
+      </c>
+      <c r="H16" s="20">
+        <v>2646</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1065</v>
+      </c>
+      <c r="J16" s="20">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K16" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L16" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="20">
+        <v>47.54</v>
+      </c>
+      <c r="E17" s="20">
+        <v>9167</v>
+      </c>
+      <c r="F17" s="20">
+        <v>3.36</v>
+      </c>
+      <c r="G17" s="20">
+        <v>24.1</v>
+      </c>
+      <c r="H17" s="20">
+        <v>2713</v>
+      </c>
+      <c r="I17" s="20">
+        <v>1146</v>
+      </c>
+      <c r="J17" s="20">
+        <v>8</v>
+      </c>
+      <c r="K17" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L17" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="D18" s="20">
+        <v>47.44</v>
+      </c>
+      <c r="E18" s="20">
+        <v>10531</v>
+      </c>
+      <c r="F18" s="20">
+        <v>3.87</v>
+      </c>
+      <c r="G18" s="20">
+        <v>29.81</v>
+      </c>
+      <c r="H18" s="20">
+        <v>2913</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1414</v>
+      </c>
+      <c r="J18" s="20">
+        <v>7.45</v>
+      </c>
+      <c r="K18" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L18" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="D19" s="20">
+        <v>47.33</v>
+      </c>
+      <c r="E19" s="20">
+        <v>11825</v>
+      </c>
+      <c r="F19" s="20">
+        <v>4.37</v>
+      </c>
+      <c r="G19" s="20">
+        <v>35.92</v>
+      </c>
+      <c r="H19" s="20">
+        <v>3087</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1700</v>
+      </c>
+      <c r="J19" s="20">
+        <v>6.95</v>
+      </c>
+      <c r="K19" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L19" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="D20" s="20">
+        <v>47.23</v>
+      </c>
+      <c r="E20" s="20">
+        <v>13079</v>
+      </c>
+      <c r="F20" s="20">
+        <v>4.83</v>
+      </c>
+      <c r="G20" s="20">
+        <v>42.1</v>
+      </c>
+      <c r="H20" s="20">
+        <v>3256</v>
+      </c>
+      <c r="I20" s="20">
+        <v>1988</v>
+      </c>
+      <c r="J20" s="20">
+        <v>6.58</v>
+      </c>
+      <c r="K20" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L20" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.94</v>
+      </c>
+      <c r="D21" s="20">
+        <v>47.1</v>
+      </c>
+      <c r="E21" s="20">
+        <v>14412</v>
+      </c>
+      <c r="F21" s="20">
+        <v>5.3</v>
+      </c>
+      <c r="G21" s="20">
+        <v>49.09</v>
+      </c>
+      <c r="H21" s="20">
+        <v>3418</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2312</v>
+      </c>
+      <c r="J21" s="20">
+        <v>6.23</v>
+      </c>
+      <c r="K21" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L21" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20">
+        <v>46.97</v>
+      </c>
+      <c r="E22" s="20">
+        <v>15849</v>
+      </c>
+      <c r="F22" s="20">
+        <v>5.83</v>
+      </c>
+      <c r="G22" s="20">
+        <v>56.87</v>
+      </c>
+      <c r="H22" s="20">
+        <v>3567</v>
+      </c>
+      <c r="I22" s="20">
+        <v>2671</v>
+      </c>
+      <c r="J22" s="20">
+        <v>5.93</v>
+      </c>
+      <c r="K22" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L22" s="21">
+        <v>99.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E688315D-5F48-4018-89C6-4A540E4DC177}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="23">
+        <v>47.86</v>
+      </c>
+      <c r="E2" s="23">
+        <v>3819</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1.29</v>
+      </c>
+      <c r="G2" s="23">
+        <v>7.55</v>
+      </c>
+      <c r="H2" s="23">
+        <v>1984</v>
+      </c>
+      <c r="I2" s="23">
+        <v>361</v>
+      </c>
+      <c r="J2" s="23">
+        <v>10.57</v>
+      </c>
+      <c r="K2" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L2" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.42</v>
+      </c>
+      <c r="D3" s="23">
+        <v>47.84</v>
+      </c>
+      <c r="E3" s="23">
+        <v>4145</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="G3" s="23">
+        <v>8.39</v>
+      </c>
+      <c r="H3" s="23">
+        <v>2055</v>
+      </c>
+      <c r="I3" s="23">
+        <v>401</v>
+      </c>
+      <c r="J3" s="23">
+        <v>10.33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L3" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.44</v>
+      </c>
+      <c r="D4" s="23">
+        <v>47.83</v>
+      </c>
+      <c r="E4" s="23">
+        <v>4433</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1.49</v>
+      </c>
+      <c r="G4" s="23">
+        <v>9.14</v>
+      </c>
+      <c r="H4" s="23">
+        <v>2141</v>
+      </c>
+      <c r="I4" s="23">
+        <v>437</v>
+      </c>
+      <c r="J4" s="23">
+        <v>10.15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L4" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.46</v>
+      </c>
+      <c r="D5" s="23">
+        <v>47.79</v>
+      </c>
+      <c r="E5" s="23">
+        <v>5135</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1.73</v>
+      </c>
+      <c r="G5" s="23">
+        <v>11.09</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2289</v>
+      </c>
+      <c r="I5" s="23">
+        <v>530</v>
+      </c>
+      <c r="J5" s="23">
+        <v>9.68</v>
+      </c>
+      <c r="K5" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L5" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.48</v>
+      </c>
+      <c r="D6" s="23">
+        <v>47.76</v>
+      </c>
+      <c r="E6" s="23">
+        <v>5719</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1.94</v>
+      </c>
+      <c r="G6" s="23">
+        <v>12.95</v>
+      </c>
+      <c r="H6" s="23">
+        <v>2416</v>
+      </c>
+      <c r="I6" s="23">
+        <v>618</v>
+      </c>
+      <c r="J6" s="23">
+        <v>9.25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L6" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="23">
+        <v>47.73</v>
+      </c>
+      <c r="E7" s="23">
+        <v>6157</v>
+      </c>
+      <c r="F7" s="23">
+        <v>2.08</v>
+      </c>
+      <c r="G7" s="23">
+        <v>14.35</v>
+      </c>
+      <c r="H7" s="23">
+        <v>2503</v>
+      </c>
+      <c r="I7" s="23">
+        <v>685</v>
+      </c>
+      <c r="J7" s="23">
+        <v>8.99</v>
+      </c>
+      <c r="K7" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L7" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.52</v>
+      </c>
+      <c r="D8" s="23">
+        <v>47.71</v>
+      </c>
+      <c r="E8" s="23">
+        <v>6592</v>
+      </c>
+      <c r="F8" s="23">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G8" s="23">
+        <v>15.63</v>
+      </c>
+      <c r="H8" s="23">
+        <v>2589</v>
+      </c>
+      <c r="I8" s="23">
+        <v>746</v>
+      </c>
+      <c r="J8" s="23">
+        <v>8.84</v>
+      </c>
+      <c r="K8" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L8" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="D9" s="23">
+        <v>47.68</v>
+      </c>
+      <c r="E9" s="23">
+        <v>7019</v>
+      </c>
+      <c r="F9" s="23">
+        <v>2.38</v>
+      </c>
+      <c r="G9" s="23">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="H9" s="23">
+        <v>2673</v>
+      </c>
+      <c r="I9" s="23">
+        <v>820</v>
+      </c>
+      <c r="J9" s="23">
+        <v>8.56</v>
+      </c>
+      <c r="K9" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L9" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D10" s="23">
+        <v>47.65</v>
+      </c>
+      <c r="E10" s="23">
+        <v>7493</v>
+      </c>
+      <c r="F10" s="23">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G10" s="23">
+        <v>18.84</v>
+      </c>
+      <c r="H10" s="23">
+        <v>2755</v>
+      </c>
+      <c r="I10" s="23">
+        <v>898</v>
+      </c>
+      <c r="J10" s="23">
+        <v>8.34</v>
+      </c>
+      <c r="K10" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L10" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D11" s="23">
+        <v>47.61</v>
+      </c>
+      <c r="E11" s="23">
+        <v>8114</v>
+      </c>
+      <c r="F11" s="23">
+        <v>2.74</v>
+      </c>
+      <c r="G11" s="23">
+        <v>21.11</v>
+      </c>
+      <c r="H11" s="23">
+        <v>2860</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1005</v>
+      </c>
+      <c r="J11" s="23">
+        <v>8.08</v>
+      </c>
+      <c r="K11" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L11" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="23">
+        <v>47.58</v>
+      </c>
+      <c r="E12" s="23">
+        <v>8578</v>
+      </c>
+      <c r="F12" s="23">
+        <v>2.9</v>
+      </c>
+      <c r="G12" s="23">
+        <v>22.89</v>
+      </c>
+      <c r="H12" s="23">
+        <v>2933</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1089</v>
+      </c>
+      <c r="J12" s="23">
+        <v>7.88</v>
+      </c>
+      <c r="K12" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L12" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="D13" s="23">
+        <v>47.55</v>
+      </c>
+      <c r="E13" s="23">
+        <v>8983</v>
+      </c>
+      <c r="F13" s="23">
+        <v>3.04</v>
+      </c>
+      <c r="G13" s="23">
+        <v>24.52</v>
+      </c>
+      <c r="H13" s="23">
+        <v>3003</v>
+      </c>
+      <c r="I13" s="23">
+        <v>1166</v>
+      </c>
+      <c r="J13" s="23">
+        <v>7.71</v>
+      </c>
+      <c r="K13" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L13" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="D14" s="23">
+        <v>47.52</v>
+      </c>
+      <c r="E14" s="23">
+        <v>9388</v>
+      </c>
+      <c r="F14" s="23">
+        <v>3.17</v>
+      </c>
+      <c r="G14" s="23">
+        <v>26.22</v>
+      </c>
+      <c r="H14" s="23">
+        <v>3070</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1246</v>
+      </c>
+      <c r="J14" s="23">
+        <v>7.53</v>
+      </c>
+      <c r="K14" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L14" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.66</v>
+      </c>
+      <c r="D15" s="23">
+        <v>47.48</v>
+      </c>
+      <c r="E15" s="23">
+        <v>9842</v>
+      </c>
+      <c r="F15" s="23">
+        <v>3.35</v>
+      </c>
+      <c r="G15" s="23">
+        <v>28.33</v>
+      </c>
+      <c r="H15" s="23">
+        <v>3145</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1345</v>
+      </c>
+      <c r="J15" s="23">
+        <v>7.32</v>
+      </c>
+      <c r="K15" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L15" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="D16" s="23">
+        <v>47.45</v>
+      </c>
+      <c r="E16" s="23">
+        <v>10262</v>
+      </c>
+      <c r="F16" s="23">
+        <v>3.47</v>
+      </c>
+      <c r="G16" s="23">
+        <v>30.19</v>
+      </c>
+      <c r="H16" s="23">
+        <v>3222</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1432</v>
+      </c>
+      <c r="J16" s="23">
+        <v>7.16</v>
+      </c>
+      <c r="K16" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L16" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="23">
+        <v>47.41</v>
+      </c>
+      <c r="E17" s="23">
+        <v>10784</v>
+      </c>
+      <c r="F17" s="23">
+        <v>3.66</v>
+      </c>
+      <c r="G17" s="23">
+        <v>32.47</v>
+      </c>
+      <c r="H17" s="23">
+        <v>3289</v>
+      </c>
+      <c r="I17" s="23">
+        <v>1540</v>
+      </c>
+      <c r="J17" s="23">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L17" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.76</v>
+      </c>
+      <c r="D18" s="23">
+        <v>47.28</v>
+      </c>
+      <c r="E18" s="23">
+        <v>12346</v>
+      </c>
+      <c r="F18" s="23">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="G18" s="23">
+        <v>39.729999999999997</v>
+      </c>
+      <c r="H18" s="23">
+        <v>3488</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1878</v>
+      </c>
+      <c r="J18" s="23">
+        <v>6.57</v>
+      </c>
+      <c r="K18" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L18" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0.82</v>
+      </c>
+      <c r="D19" s="23">
+        <v>47.16</v>
+      </c>
+      <c r="E19" s="23">
+        <v>13689</v>
+      </c>
+      <c r="F19" s="23">
+        <v>4.68</v>
+      </c>
+      <c r="G19" s="23">
+        <v>47.11</v>
+      </c>
+      <c r="H19" s="23">
+        <v>3679</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2222</v>
+      </c>
+      <c r="J19" s="23">
+        <v>6.16</v>
+      </c>
+      <c r="K19" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L19" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.88</v>
+      </c>
+      <c r="D20" s="23">
+        <v>47.02</v>
+      </c>
+      <c r="E20" s="23">
+        <v>15158</v>
+      </c>
+      <c r="F20" s="23">
+        <v>5.17</v>
+      </c>
+      <c r="G20" s="23">
+        <v>54.95</v>
+      </c>
+      <c r="H20" s="23">
+        <v>3855</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2583</v>
+      </c>
+      <c r="J20" s="23">
+        <v>5.87</v>
+      </c>
+      <c r="K20" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L20" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.94</v>
+      </c>
+      <c r="D21" s="23">
+        <v>46.84</v>
+      </c>
+      <c r="E21" s="23">
+        <v>16739</v>
+      </c>
+      <c r="F21" s="23">
+        <v>5.73</v>
+      </c>
+      <c r="G21" s="23">
+        <v>64.69</v>
+      </c>
+      <c r="H21" s="23">
+        <v>4037</v>
+      </c>
+      <c r="I21" s="23">
+        <v>3030</v>
+      </c>
+      <c r="J21" s="23">
+        <v>5.52</v>
+      </c>
+      <c r="K21" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L21" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="23">
+        <v>46.66</v>
+      </c>
+      <c r="E22" s="23">
+        <v>18256</v>
+      </c>
+      <c r="F22" s="23">
+        <v>6.28</v>
+      </c>
+      <c r="G22" s="23">
+        <v>74.97</v>
+      </c>
+      <c r="H22" s="23">
+        <v>4209</v>
+      </c>
+      <c r="I22" s="23">
+        <v>3498</v>
+      </c>
+      <c r="J22" s="23">
+        <v>5.22</v>
+      </c>
+      <c r="K22" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L22" s="21">
+        <v>335.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689C4698-914D-44D0-9A7B-D7F3AED565DB}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="20">
+        <v>47.85</v>
+      </c>
+      <c r="E2" s="20">
+        <v>4027</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1.44</v>
+      </c>
+      <c r="G2" s="20">
+        <v>8.14</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1964</v>
+      </c>
+      <c r="I2" s="20">
+        <v>390</v>
+      </c>
+      <c r="J2" s="20">
+        <v>10.33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L2" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="D3" s="20">
+        <v>47.84</v>
+      </c>
+      <c r="E3" s="20">
+        <v>4322</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1.54</v>
+      </c>
+      <c r="G3" s="20">
+        <v>8.91</v>
+      </c>
+      <c r="H3" s="20">
+        <v>2034</v>
+      </c>
+      <c r="I3" s="20">
+        <v>426</v>
+      </c>
+      <c r="J3" s="20">
+        <v>10.14</v>
+      </c>
+      <c r="K3" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L3" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.44</v>
+      </c>
+      <c r="D4" s="20">
+        <v>47.82</v>
+      </c>
+      <c r="E4" s="20">
+        <v>4608</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1.64</v>
+      </c>
+      <c r="G4" s="20">
+        <v>9.81</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2103</v>
+      </c>
+      <c r="I4" s="20">
+        <v>469</v>
+      </c>
+      <c r="J4" s="20">
+        <v>9.82</v>
+      </c>
+      <c r="K4" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L4" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.46</v>
+      </c>
+      <c r="D5" s="20">
+        <v>47.8</v>
+      </c>
+      <c r="E5" s="20">
+        <v>5009</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1.79</v>
+      </c>
+      <c r="G5" s="20">
+        <v>11.07</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2197</v>
+      </c>
+      <c r="I5" s="20">
+        <v>529</v>
+      </c>
+      <c r="J5" s="20">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="K5" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L5" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="D6" s="20">
+        <v>47.76</v>
+      </c>
+      <c r="E6" s="20">
+        <v>5603</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1.99</v>
+      </c>
+      <c r="G6" s="20">
+        <v>12.85</v>
+      </c>
+      <c r="H6" s="20">
+        <v>2318</v>
+      </c>
+      <c r="I6" s="20">
+        <v>614</v>
+      </c>
+      <c r="J6" s="20">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="K6" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L6" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="20">
+        <v>47.72</v>
+      </c>
+      <c r="E7" s="20">
+        <v>6395</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G7" s="20">
+        <v>15.37</v>
+      </c>
+      <c r="H7" s="20">
+        <v>2473</v>
+      </c>
+      <c r="I7" s="20">
+        <v>733</v>
+      </c>
+      <c r="J7" s="20">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="K7" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L7" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="D8" s="20">
+        <v>47.69</v>
+      </c>
+      <c r="E8" s="20">
+        <v>6805</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2.42</v>
+      </c>
+      <c r="G8" s="20">
+        <v>16.8</v>
+      </c>
+      <c r="H8" s="20">
+        <v>2553</v>
+      </c>
+      <c r="I8" s="20">
+        <v>801</v>
+      </c>
+      <c r="J8" s="20">
+        <v>8.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L8" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="D9" s="20">
+        <v>47.66</v>
+      </c>
+      <c r="E9" s="20">
+        <v>7239</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2.57</v>
+      </c>
+      <c r="G9" s="20">
+        <v>18.34</v>
+      </c>
+      <c r="H9" s="20">
+        <v>2637</v>
+      </c>
+      <c r="I9" s="20">
+        <v>874</v>
+      </c>
+      <c r="J9" s="20">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="K9" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L9" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D10" s="20">
+        <v>47.63</v>
+      </c>
+      <c r="E10" s="20">
+        <v>7702</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2.73</v>
+      </c>
+      <c r="G10" s="20">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="H10" s="20">
+        <v>2715</v>
+      </c>
+      <c r="I10" s="20">
+        <v>955</v>
+      </c>
+      <c r="J10" s="20">
+        <v>8.06</v>
+      </c>
+      <c r="K10" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L10" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D11" s="20">
+        <v>47.6</v>
+      </c>
+      <c r="E11" s="20">
+        <v>8219</v>
+      </c>
+      <c r="F11" s="20">
+        <v>2.92</v>
+      </c>
+      <c r="G11" s="20">
+        <v>21.98</v>
+      </c>
+      <c r="H11" s="20">
+        <v>2796</v>
+      </c>
+      <c r="I11" s="20">
+        <v>1046</v>
+      </c>
+      <c r="J11" s="20">
+        <v>7.86</v>
+      </c>
+      <c r="K11" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L11" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="20">
+        <v>47.56</v>
+      </c>
+      <c r="E12" s="20">
+        <v>8708</v>
+      </c>
+      <c r="F12" s="20">
+        <v>3.1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>24.13</v>
+      </c>
+      <c r="H12" s="20">
+        <v>2886</v>
+      </c>
+      <c r="I12" s="20">
+        <v>1148</v>
+      </c>
+      <c r="J12" s="20">
+        <v>7.59</v>
+      </c>
+      <c r="K12" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L12" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="D13" s="20">
+        <v>47.53</v>
+      </c>
+      <c r="E13" s="20">
+        <v>9147</v>
+      </c>
+      <c r="F13" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="G13" s="20">
+        <v>25.84</v>
+      </c>
+      <c r="H13" s="20">
+        <v>2951</v>
+      </c>
+      <c r="I13" s="20">
+        <v>1228</v>
+      </c>
+      <c r="J13" s="20">
+        <v>7.45</v>
+      </c>
+      <c r="K13" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L13" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="D14" s="20">
+        <v>47.49</v>
+      </c>
+      <c r="E14" s="20">
+        <v>9526</v>
+      </c>
+      <c r="F14" s="20">
+        <v>3.39</v>
+      </c>
+      <c r="G14" s="20">
+        <v>27.85</v>
+      </c>
+      <c r="H14" s="20">
+        <v>3029</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1323</v>
+      </c>
+      <c r="J14" s="20">
+        <v>7.2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L14" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.66</v>
+      </c>
+      <c r="D15" s="20">
+        <v>47.45</v>
+      </c>
+      <c r="E15" s="20">
+        <v>10077</v>
+      </c>
+      <c r="F15" s="20">
+        <v>3.59</v>
+      </c>
+      <c r="G15" s="20">
+        <v>30.04</v>
+      </c>
+      <c r="H15" s="20">
+        <v>3102</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1425</v>
+      </c>
+      <c r="J15" s="20">
+        <v>7.07</v>
+      </c>
+      <c r="K15" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L15" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="D16" s="20">
+        <v>47.41</v>
+      </c>
+      <c r="E16" s="20">
+        <v>10495</v>
+      </c>
+      <c r="F16" s="20">
+        <v>3.74</v>
+      </c>
+      <c r="G16" s="20">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="H16" s="20">
+        <v>3174</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1523</v>
+      </c>
+      <c r="J16" s="20">
+        <v>6.89</v>
+      </c>
+      <c r="K16" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L16" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="20">
+        <v>47.37</v>
+      </c>
+      <c r="E17" s="20">
+        <v>11049</v>
+      </c>
+      <c r="F17" s="20">
+        <v>3.93</v>
+      </c>
+      <c r="G17" s="20">
+        <v>34.54</v>
+      </c>
+      <c r="H17" s="20">
+        <v>3239</v>
+      </c>
+      <c r="I17" s="20">
+        <v>1636</v>
+      </c>
+      <c r="J17" s="20">
+        <v>6.75</v>
+      </c>
+      <c r="K17" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L17" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="D18" s="20">
+        <v>47.25</v>
+      </c>
+      <c r="E18" s="20">
+        <v>12441</v>
+      </c>
+      <c r="F18" s="20">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G18" s="20">
+        <v>41.62</v>
+      </c>
+      <c r="H18" s="20">
+        <v>3442</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1966</v>
+      </c>
+      <c r="J18" s="20">
+        <v>6.33</v>
+      </c>
+      <c r="K18" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L18" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="D19" s="20">
+        <v>47.11</v>
+      </c>
+      <c r="E19" s="20">
+        <v>13813</v>
+      </c>
+      <c r="F19" s="20">
+        <v>4.96</v>
+      </c>
+      <c r="G19" s="20">
+        <v>49.58</v>
+      </c>
+      <c r="H19" s="20">
+        <v>3623</v>
+      </c>
+      <c r="I19" s="20">
+        <v>2335</v>
+      </c>
+      <c r="J19" s="20">
+        <v>5.91</v>
+      </c>
+      <c r="K19" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L19" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="D20" s="20">
+        <v>46.97</v>
+      </c>
+      <c r="E20" s="20">
+        <v>15149</v>
+      </c>
+      <c r="F20" s="20">
+        <v>5.43</v>
+      </c>
+      <c r="G20" s="20">
+        <v>57.5</v>
+      </c>
+      <c r="H20" s="20">
+        <v>3798</v>
+      </c>
+      <c r="I20" s="20">
+        <v>2701</v>
+      </c>
+      <c r="J20" s="20">
+        <v>5.61</v>
+      </c>
+      <c r="K20" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L20" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.94</v>
+      </c>
+      <c r="D21" s="20">
+        <v>46.8</v>
+      </c>
+      <c r="E21" s="20">
+        <v>16817</v>
+      </c>
+      <c r="F21" s="20">
+        <v>5.98</v>
+      </c>
+      <c r="G21" s="20">
+        <v>67.17</v>
+      </c>
+      <c r="H21" s="20">
+        <v>3979</v>
+      </c>
+      <c r="I21" s="20">
+        <v>3143</v>
+      </c>
+      <c r="J21" s="20">
+        <v>5.35</v>
+      </c>
+      <c r="K21" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L21" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20">
+        <v>46.61</v>
+      </c>
+      <c r="E22" s="20">
+        <v>18291</v>
+      </c>
+      <c r="F22" s="20">
+        <v>6.54</v>
+      </c>
+      <c r="G22" s="20">
+        <v>77.84</v>
+      </c>
+      <c r="H22" s="20">
+        <v>4142</v>
+      </c>
+      <c r="I22" s="20">
+        <v>3628</v>
+      </c>
+      <c r="J22" s="20">
+        <v>5.04</v>
+      </c>
+      <c r="K22" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L22" s="21">
+        <v>89.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CA47D4-CBB3-4BF3-92E2-1B6D9F3A1C59}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="20">
+        <v>47.88</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3371</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2" s="20">
+        <v>6.6</v>
+      </c>
+      <c r="H2" s="20">
+        <v>2020</v>
+      </c>
+      <c r="I2" s="20">
+        <v>316</v>
+      </c>
+      <c r="J2" s="20">
+        <v>10.67</v>
+      </c>
+      <c r="K2" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L2" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="D3" s="20">
+        <v>47.86</v>
+      </c>
+      <c r="E3" s="20">
+        <v>3643</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1.19</v>
+      </c>
+      <c r="G3" s="20">
+        <v>7.32</v>
+      </c>
+      <c r="H3" s="20">
+        <v>2097</v>
+      </c>
+      <c r="I3" s="20">
+        <v>351</v>
+      </c>
+      <c r="J3" s="20">
+        <v>10.39</v>
+      </c>
+      <c r="K3" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L3" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.44</v>
+      </c>
+      <c r="D4" s="20">
+        <v>47.84</v>
+      </c>
+      <c r="E4" s="20">
+        <v>3974</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="G4" s="20">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2199</v>
+      </c>
+      <c r="I4" s="20">
+        <v>397</v>
+      </c>
+      <c r="J4" s="20">
+        <v>10.01</v>
+      </c>
+      <c r="K4" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L4" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.46</v>
+      </c>
+      <c r="D5" s="20">
+        <v>47.81</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4498</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1.47</v>
+      </c>
+      <c r="G5" s="20">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2332</v>
+      </c>
+      <c r="I5" s="20">
+        <v>465</v>
+      </c>
+      <c r="J5" s="20">
+        <v>9.68</v>
+      </c>
+      <c r="K5" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L5" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="D6" s="20">
+        <v>47.79</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4931</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1.61</v>
+      </c>
+      <c r="G6" s="20">
+        <v>10.9</v>
+      </c>
+      <c r="H6" s="20">
+        <v>2442</v>
+      </c>
+      <c r="I6" s="20">
+        <v>521</v>
+      </c>
+      <c r="J6" s="20">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="K6" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L6" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="20">
+        <v>47.78</v>
+      </c>
+      <c r="E7" s="20">
+        <v>5338</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1.74</v>
+      </c>
+      <c r="G7" s="20">
+        <v>12</v>
+      </c>
+      <c r="H7" s="20">
+        <v>2529</v>
+      </c>
+      <c r="I7" s="20">
+        <v>573</v>
+      </c>
+      <c r="J7" s="20">
+        <v>9.31</v>
+      </c>
+      <c r="K7" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L7" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="D8" s="20">
+        <v>47.74</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5850</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1.91</v>
+      </c>
+      <c r="G8" s="20">
+        <v>13.9</v>
+      </c>
+      <c r="H8" s="20">
+        <v>2657</v>
+      </c>
+      <c r="I8" s="20">
+        <v>664</v>
+      </c>
+      <c r="J8" s="20">
+        <v>8.82</v>
+      </c>
+      <c r="K8" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L8" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="D9" s="20">
+        <v>47.72</v>
+      </c>
+      <c r="E9" s="20">
+        <v>6290</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G9" s="20">
+        <v>15.25</v>
+      </c>
+      <c r="H9" s="20">
+        <v>2755</v>
+      </c>
+      <c r="I9" s="20">
+        <v>728</v>
+      </c>
+      <c r="J9" s="20">
+        <v>8.64</v>
+      </c>
+      <c r="K9" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L9" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D10" s="20">
+        <v>47.68</v>
+      </c>
+      <c r="E10" s="20">
+        <v>6778</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2.21</v>
+      </c>
+      <c r="G10" s="20">
+        <v>17.07</v>
+      </c>
+      <c r="H10" s="20">
+        <v>2854</v>
+      </c>
+      <c r="I10" s="20">
+        <v>814</v>
+      </c>
+      <c r="J10" s="20">
+        <v>8.33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L10" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D11" s="20">
+        <v>47.66</v>
+      </c>
+      <c r="E11" s="20">
+        <v>7230</v>
+      </c>
+      <c r="F11" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="G11" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="H11" s="20">
+        <v>2936</v>
+      </c>
+      <c r="I11" s="20">
+        <v>883</v>
+      </c>
+      <c r="J11" s="20">
+        <v>8.19</v>
+      </c>
+      <c r="K11" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L11" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="20">
+        <v>47.63</v>
+      </c>
+      <c r="E12" s="20">
+        <v>7608</v>
+      </c>
+      <c r="F12" s="20">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G12" s="20">
+        <v>19.97</v>
+      </c>
+      <c r="H12" s="20">
+        <v>3012</v>
+      </c>
+      <c r="I12" s="20">
+        <v>951</v>
+      </c>
+      <c r="J12" s="20">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L12" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="D13" s="20">
+        <v>47.6</v>
+      </c>
+      <c r="E13" s="20">
+        <v>7960</v>
+      </c>
+      <c r="F13" s="20">
+        <v>2.59</v>
+      </c>
+      <c r="G13" s="20">
+        <v>21.38</v>
+      </c>
+      <c r="H13" s="20">
+        <v>3079</v>
+      </c>
+      <c r="I13" s="20">
+        <v>1018</v>
+      </c>
+      <c r="J13" s="20">
+        <v>7.82</v>
+      </c>
+      <c r="K13" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L13" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="D14" s="20">
+        <v>47.58</v>
+      </c>
+      <c r="E14" s="20">
+        <v>8330</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2.72</v>
+      </c>
+      <c r="G14" s="20">
+        <v>22.86</v>
+      </c>
+      <c r="H14" s="20">
+        <v>3149</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1088</v>
+      </c>
+      <c r="J14" s="20">
+        <v>7.66</v>
+      </c>
+      <c r="K14" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L14" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.66</v>
+      </c>
+      <c r="D15" s="20">
+        <v>47.55</v>
+      </c>
+      <c r="E15" s="20">
+        <v>8737</v>
+      </c>
+      <c r="F15" s="20">
+        <v>2.84</v>
+      </c>
+      <c r="G15" s="20">
+        <v>24.55</v>
+      </c>
+      <c r="H15" s="20">
+        <v>3228</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1167</v>
+      </c>
+      <c r="J15" s="20">
+        <v>7.49</v>
+      </c>
+      <c r="K15" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L15" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="D16" s="20">
+        <v>47.52</v>
+      </c>
+      <c r="E16" s="20">
+        <v>9214</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2.99</v>
+      </c>
+      <c r="G16" s="20">
+        <v>26.37</v>
+      </c>
+      <c r="H16" s="20">
+        <v>3306</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1253</v>
+      </c>
+      <c r="J16" s="20">
+        <v>7.35</v>
+      </c>
+      <c r="K16" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L16" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="20">
+        <v>47.48</v>
+      </c>
+      <c r="E17" s="20">
+        <v>9632</v>
+      </c>
+      <c r="F17" s="20">
+        <v>3.14</v>
+      </c>
+      <c r="G17" s="20">
+        <v>28.43</v>
+      </c>
+      <c r="H17" s="20">
+        <v>3381</v>
+      </c>
+      <c r="I17" s="20">
+        <v>1350</v>
+      </c>
+      <c r="J17" s="20">
+        <v>7.14</v>
+      </c>
+      <c r="K17" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L17" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="D18" s="20">
+        <v>47.38</v>
+      </c>
+      <c r="E18" s="20">
+        <v>10865</v>
+      </c>
+      <c r="F18" s="20">
+        <v>3.53</v>
+      </c>
+      <c r="G18" s="20">
+        <v>33.93</v>
+      </c>
+      <c r="H18" s="20">
+        <v>3594</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1608</v>
+      </c>
+      <c r="J18" s="20">
+        <v>6.76</v>
+      </c>
+      <c r="K18" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L18" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="D19" s="20">
+        <v>47.26</v>
+      </c>
+      <c r="E19" s="20">
+        <v>12235</v>
+      </c>
+      <c r="F19" s="20">
+        <v>3.99</v>
+      </c>
+      <c r="G19" s="20">
+        <v>40.64</v>
+      </c>
+      <c r="H19" s="20">
+        <v>3792</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1921</v>
+      </c>
+      <c r="J19" s="20">
+        <v>6.37</v>
+      </c>
+      <c r="K19" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L19" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="D20" s="20">
+        <v>47.13</v>
+      </c>
+      <c r="E20" s="20">
+        <v>13656</v>
+      </c>
+      <c r="F20" s="20">
+        <v>4.47</v>
+      </c>
+      <c r="G20" s="20">
+        <v>48.19</v>
+      </c>
+      <c r="H20" s="20">
+        <v>3995</v>
+      </c>
+      <c r="I20" s="20">
+        <v>2272</v>
+      </c>
+      <c r="J20" s="20">
+        <v>6.01</v>
+      </c>
+      <c r="K20" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L20" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="20">
+        <v>9496</v>
+      </c>
+      <c r="D21" s="20">
+        <v>46.99</v>
+      </c>
+      <c r="E21" s="20">
+        <v>15086</v>
+      </c>
+      <c r="F21" s="20">
+        <v>4.93</v>
+      </c>
+      <c r="G21" s="20">
+        <v>56.17</v>
+      </c>
+      <c r="H21" s="20">
+        <v>4185</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2640</v>
+      </c>
+      <c r="J21" s="20">
+        <v>5.72</v>
+      </c>
+      <c r="K21" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L21" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20">
+        <v>46.82</v>
+      </c>
+      <c r="E22" s="20">
+        <v>16504</v>
+      </c>
+      <c r="F22" s="20">
+        <v>5.42</v>
+      </c>
+      <c r="G22" s="20">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="H22" s="20">
+        <v>4371</v>
+      </c>
+      <c r="I22" s="20">
+        <v>3052</v>
+      </c>
+      <c r="J22" s="20">
+        <v>5.41</v>
+      </c>
+      <c r="K22" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="L22" s="21">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>